--- a/data/external_datasets_submission_form_kor.xlsx
+++ b/data/external_datasets_submission_form_kor.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <r>
       <t xml:space="preserve">Samsung </t>
@@ -78,6 +78,14 @@
   </si>
   <si>
     <t>라이센스 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,7 +547,7 @@
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -585,11 +593,21 @@
       </c>
     </row>
     <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
     <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.45"/>
